--- a/Model_rez_260/Hist_IR_Ridge_260.xlsx
+++ b/Model_rez_260/Hist_IR_Ridge_260.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>PredictReturn</t>
   </si>
@@ -28,160 +28,112 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2186.36938569</t>
-  </si>
-  <si>
-    <t>3182.13918221</t>
-  </si>
-  <si>
-    <t>4037.21948649</t>
-  </si>
-  <si>
-    <t>2815.31035451</t>
-  </si>
-  <si>
-    <t>1826.94198243</t>
-  </si>
-  <si>
-    <t>3978.52027841</t>
-  </si>
-  <si>
-    <t>3300.26754397</t>
-  </si>
-  <si>
-    <t>4492.1735817</t>
-  </si>
-  <si>
-    <t>3684.63934367</t>
-  </si>
-  <si>
-    <t>2344.99625132</t>
-  </si>
-  <si>
-    <t>2406.49051667</t>
-  </si>
-  <si>
-    <t>2258.95022597</t>
-  </si>
-  <si>
-    <t>2716.37048604</t>
+    <t>2881.63492235</t>
+  </si>
+  <si>
+    <t>3904.58424371</t>
+  </si>
+  <si>
+    <t>4022.50216748</t>
+  </si>
+  <si>
+    <t>3093.46540045</t>
+  </si>
+  <si>
+    <t>2404.52239037</t>
+  </si>
+  <si>
+    <t>3249.75328201</t>
+  </si>
+  <si>
+    <t>2279.61409951</t>
+  </si>
+  <si>
+    <t>4282.59583706</t>
+  </si>
+  <si>
+    <t>2986.50576982</t>
+  </si>
+  <si>
+    <t>2924.0258454</t>
+  </si>
+  <si>
+    <t>3872.5534278</t>
+  </si>
+  <si>
+    <t>4250.9472849</t>
+  </si>
+  <si>
+    <t>2645.47404405</t>
+  </si>
+  <si>
+    <t>2524.9969935</t>
+  </si>
+  <si>
+    <t>3275.9270424</t>
   </si>
   <si>
     <t>2304.2957283</t>
   </si>
   <si>
-    <t>3275.9270424</t>
-  </si>
-  <si>
-    <t>4118.9235939</t>
-  </si>
-  <si>
-    <t>2858.3770347</t>
-  </si>
-  <si>
-    <t>1443.89920518</t>
-  </si>
-  <si>
-    <t>4442.219811</t>
-  </si>
-  <si>
-    <t>3140.6680521</t>
-  </si>
-  <si>
-    <t>4910.0736384</t>
-  </si>
-  <si>
-    <t>3872.5534278</t>
-  </si>
-  <si>
-    <t>2545.9842897</t>
-  </si>
-  <si>
-    <t>3398.9383899</t>
-  </si>
-  <si>
-    <t>2524.9969935</t>
-  </si>
-  <si>
-    <t>2924.0258454</t>
-  </si>
-  <si>
-    <t>117.926342608</t>
-  </si>
-  <si>
-    <t>93.7878601906</t>
-  </si>
-  <si>
-    <t>81.7041074089</t>
-  </si>
-  <si>
-    <t>43.0666801925</t>
-  </si>
-  <si>
-    <t>-383.042777249</t>
-  </si>
-  <si>
-    <t>463.699532589</t>
-  </si>
-  <si>
-    <t>-159.599491867</t>
-  </si>
-  <si>
-    <t>417.900056703</t>
-  </si>
-  <si>
-    <t>187.914084132</t>
-  </si>
-  <si>
-    <t>200.988038378</t>
-  </si>
-  <si>
-    <t>992.447873232</t>
-  </si>
-  <si>
-    <t>266.046767531</t>
-  </si>
-  <si>
-    <t>207.655359361</t>
+    <t>5252.2288254</t>
+  </si>
+  <si>
+    <t>2699.6016564</t>
+  </si>
+  <si>
+    <t>42.3909230483</t>
+  </si>
+  <si>
+    <t>-32.0308159103</t>
+  </si>
+  <si>
+    <t>228.445117422</t>
+  </si>
+  <si>
+    <t>-447.991356404</t>
+  </si>
+  <si>
+    <t>120.474603125</t>
+  </si>
+  <si>
+    <t>26.173760386</t>
+  </si>
+  <si>
+    <t>24.6816287909</t>
+  </si>
+  <si>
+    <t>969.632988339</t>
+  </si>
+  <si>
+    <t>-286.904113417</t>
+  </si>
+  <si>
+    <t>2017-05-05</t>
+  </si>
+  <si>
+    <t>2017-05-18</t>
+  </si>
+  <si>
+    <t>2017-04-10</t>
+  </si>
+  <si>
+    <t>2017-05-25</t>
+  </si>
+  <si>
+    <t>2017-05-08</t>
+  </si>
+  <si>
+    <t>2017-05-06</t>
   </si>
   <si>
     <t>2017-05-10</t>
   </si>
   <si>
-    <t>2017-05-06</t>
-  </si>
-  <si>
-    <t>2017-04-14</t>
-  </si>
-  <si>
-    <t>2017-05-23</t>
-  </si>
-  <si>
-    <t>2017-05-29</t>
-  </si>
-  <si>
-    <t>2017-05-19</t>
-  </si>
-  <si>
-    <t>2017-04-16</t>
-  </si>
-  <si>
-    <t>2017-05-20</t>
-  </si>
-  <si>
-    <t>2017-05-18</t>
-  </si>
-  <si>
-    <t>2017-05-09</t>
-  </si>
-  <si>
-    <t>2017-04-18</t>
-  </si>
-  <si>
-    <t>2017-05-08</t>
-  </si>
-  <si>
-    <t>2017-05-05</t>
+    <t>2017-04-11</t>
+  </si>
+  <si>
+    <t>2017-05-24</t>
   </si>
 </sst>
 </file>
@@ -539,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -584,13 +536,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -601,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -618,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -635,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -652,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -669,13 +621,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -686,13 +638,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -703,81 +655,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
